--- a/test_case_data/case.xlsx
+++ b/test_case_data/case.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView windowWidth="20370" windowHeight="7485"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
   <si>
     <t>用例ID</t>
   </si>
@@ -45,19 +45,22 @@
     <t>aaaa</t>
   </si>
   <si>
+    <t>{'password':'1221'}</t>
+  </si>
+  <si>
+    <t>http://www.tuling123.com/openapi/api</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>code=40001</t>
+  </si>
+  <si>
+    <t>dfeb1cc8125943d29764a2f2f5c33739</t>
+  </si>
+  <si>
     <t>{'password':'1222'}</t>
-  </si>
-  <si>
-    <t>http://www.tuling123.com/openapi/api</t>
-  </si>
-  <si>
-    <t>POST</t>
-  </si>
-  <si>
-    <t>code=40001</t>
-  </si>
-  <si>
-    <t>dfeb1cc8125943d29764a2f2f5c33739</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.tuling123.com/openapi/api
@@ -70,45 +73,62 @@
     <t>豆瓣api</t>
   </si>
   <si>
+    <t>dfeb1cc8125943d29764a2f2f5c33</t>
+  </si>
+  <si>
+    <t>{'password':'1223'}</t>
+  </si>
+  <si>
     <t>https://api.douban.com/v2/photo/:id</t>
   </si>
   <si>
     <t>GET</t>
+  </si>
+  <si>
+    <t>code=40003</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="5">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color indexed="20"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,11 +148,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -140,24 +178,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="8">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
+    <cellStyle name="百分比" xfId="4" builtinId="5"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -207,71 +244,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -404,8 +441,8 @@
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
+                <a:satMod val="350000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
@@ -441,20 +478,62 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="0" cy="0"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="_h" fmla="val 21600"/>
+            <a:gd name="_w" fmla="val 21600"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:pathLst>
+            <a:path w="21600" h="21600"/>
+          </a:pathLst>
+        </a:custGeom>
+        <a:gradFill rotWithShape="0">
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:srgbClr val="9CBEE0"/>
+            </a:gs>
+            <a:gs pos="0">
+              <a:srgbClr val="BBD5F0"/>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:srgbClr val="739CC3"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="200000"/>
+        </a:ln>
+      </a:spPr>
+      <a:bodyPr/>
+      <a:lstStyle/>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C6" sqref="C12 C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="35.375" customWidth="1"/>
@@ -463,7 +542,7 @@
     <col min="7" max="7" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -486,7 +565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -509,7 +588,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="3" ht="27" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -520,75 +599,82 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
         <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="G4" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2" tooltip="http://www.tuling123.com/openapi/api_x000a_"/>
+    <hyperlink ref="E2" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
+    <hyperlink ref="E3" r:id="rId2" display="http://www.tuling123.com/openapi/api&#10;" tooltip="http://www.tuling123.com/openapi/api_x000a_"/>
   </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/test_case_data/case.xlsx
+++ b/test_case_data/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20370" windowHeight="7485"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
   <si>
     <t>用例ID</t>
   </si>
@@ -39,53 +39,22 @@
     <t>期望</t>
   </si>
   <si>
-    <t>图灵api接口</t>
+    <t>login</t>
   </si>
   <si>
-    <t>aaaa</t>
+    <t>{'securityToken': 'c063c4d327282264257d60163da3a33e';
+'username': '88@qq.com';
+'password': '111111v';
+'remember': 1}</t>
   </si>
   <si>
-    <t>{'password':'1221'}</t>
-  </si>
-  <si>
-    <t>http://www.tuling123.com/openapi/api</t>
+    <t>http://www.pinkclassy.test.com/user/member/act_ajax_login</t>
   </si>
   <si>
     <t>POST</t>
   </si>
   <si>
-    <t>code=40001</t>
-  </si>
-  <si>
-    <t>dfeb1cc8125943d29764a2f2f5c33739</t>
-  </si>
-  <si>
-    <t>{'password':'1222'}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.tuling123.com/openapi/api
-</t>
-  </si>
-  <si>
-    <t>code=40002</t>
-  </si>
-  <si>
-    <t>豆瓣api</t>
-  </si>
-  <si>
-    <t>dfeb1cc8125943d29764a2f2f5c33</t>
-  </si>
-  <si>
-    <t>{'password':'1223'}</t>
-  </si>
-  <si>
-    <t>https://api.douban.com/v2/photo/:id</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>code=40003</t>
+    <t>{"status":false}</t>
   </si>
 </sst>
 </file>
@@ -93,12 +62,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -108,38 +77,360 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="20"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -147,54 +438,328 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="3" builtinId="6"/>
-    <cellStyle name="百分比" xfId="4" builtinId="5"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -244,71 +809,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="MoolBoran"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
         <a:font script="Khmr" typeface="DaunPenh"/>
         <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
         <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
         <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -520,20 +1085,19 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C12 C6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
     <col min="3" max="3" width="35.375" customWidth="1"/>
@@ -565,79 +1129,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" ht="94.5" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1"/>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" ht="27" spans="1:7">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
+    <row r="3" spans="5:5">
+      <c r="E3" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" display="http://www.tuling123.com/openapi/api"/>
-    <hyperlink ref="E3" r:id="rId2" display="http://www.tuling123.com/openapi/api&#10;" tooltip="http://www.tuling123.com/openapi/api_x000a_"/>
+    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2" display="login"/>
+    <hyperlink ref="E2" r:id="rId2" display="http://www.pinkclassy.test.com/user/member/act_ajax_login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -646,7 +1166,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -663,7 +1183,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>

--- a/test_case_data/case.xlsx
+++ b/test_case_data/case.xlsx
@@ -24,16 +24,16 @@
     <t>用例名</t>
   </si>
   <si>
-    <t>key(需要key可以在这里增加key)</t>
+    <t>请求方式</t>
+  </si>
+  <si>
+    <t>url</t>
   </si>
   <si>
     <t>参数</t>
   </si>
   <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>请求方式</t>
+    <t>key</t>
   </si>
   <si>
     <t>期望</t>
@@ -42,16 +42,13 @@
     <t>login</t>
   </si>
   <si>
-    <t>{'securityToken': 'c063c4d327282264257d60163da3a33e';
-'username': '88@qq.com';
-'password': '111111v';
-'remember': 1}</t>
+    <t>POST</t>
   </si>
   <si>
     <t>http://www.pinkclassy.test.com/user/member/act_ajax_login</t>
   </si>
   <si>
-    <t>POST</t>
+    <t>{'securityToken': 'c063c4d327282264257d60163da3a33e';'username': '88@qq.com';'password': '111111';'remember': 1}</t>
   </si>
   <si>
     <t>{"status":false}</t>
@@ -67,7 +64,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -84,7 +81,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color indexed="12"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -96,6 +93,11 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -103,43 +105,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,51 +178,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -213,9 +186,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,13 +239,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -251,49 +255,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,127 +375,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -439,17 +443,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,17 +482,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,29 +508,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,148 +545,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -696,7 +700,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
@@ -1094,15 +1098,15 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
   <cols>
     <col min="2" max="2" width="15.375" customWidth="1"/>
-    <col min="3" max="3" width="35.375" customWidth="1"/>
-    <col min="4" max="4" width="24.25" customWidth="1"/>
-    <col min="5" max="5" width="37.25" customWidth="1"/>
+    <col min="4" max="4" width="37.25" customWidth="1"/>
+    <col min="5" max="5" width="24.25" customWidth="1"/>
+    <col min="6" max="6" width="37.25" customWidth="1"/>
     <col min="7" max="7" width="27.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1129,35 +1133,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="94.5" spans="1:7">
+    <row r="2" ht="67.5" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F2" s="3"/>
       <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="5:5">
-      <c r="E3" s="4"/>
+    <row r="3" spans="4:6">
+      <c r="D3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="B2" r:id="rId2" display="login"/>
-    <hyperlink ref="E2" r:id="rId2" display="http://www.pinkclassy.test.com/user/member/act_ajax_login"/>
+    <hyperlink ref="B2" r:id="rId1" display="login"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://www.pinkclassy.test.com/user/member/act_ajax_login" tooltip="http://www.pinkclassy.test.com/user/member/act_ajax_login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/test_case_data/case.xlsx
+++ b/test_case_data/case.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
   <si>
     <t>用例ID</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>{"status":false}</t>
+  </si>
+  <si>
+    <t>login2</t>
+  </si>
+  <si>
+    <t>{'securityToken': 'c063c4d327282264257d60163da3a33e';'username': '88@qq.com';'password': '222222';'remember': 1}</t>
+  </si>
+  <si>
+    <t>{"status":false2}</t>
   </si>
 </sst>
 </file>
@@ -59,10 +68,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -86,70 +95,100 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color indexed="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color indexed="20"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,8 +210,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,52 +226,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -239,6 +233,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -249,6 +258,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -261,7 +306,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -279,67 +366,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -351,7 +390,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -375,18 +414,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -405,31 +432,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,11 +452,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -485,34 +500,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,7 +525,27 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -545,152 +554,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -702,9 +711,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1097,8 +1103,8 @@
   <sheetPr/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="6"/>
@@ -1154,14 +1160,33 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="4:6">
-      <c r="D3" s="4"/>
-      <c r="F3" s="4"/>
+    <row r="3" ht="67.5" spans="1:7">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="login"/>
     <hyperlink ref="D2" r:id="rId1" display="http://www.pinkclassy.test.com/user/member/act_ajax_login" tooltip="http://www.pinkclassy.test.com/user/member/act_ajax_login"/>
+    <hyperlink ref="B3" r:id="rId1" display="login2"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://www.pinkclassy.test.com/user/member/act_ajax_login" tooltip="http://www.pinkclassy.test.com/user/member/act_ajax_login"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
